--- a/HowDo/docs/HowDo-테이블명세.xlsx
+++ b/HowDo/docs/HowDo-테이블명세.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Project\HowDo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D501D44-446A-43CA-910C-9D6CAF91959F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD564077-5A96-4060-A095-6F7A301D9F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1680" windowWidth="27690" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="254">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1015,6 +1015,30 @@
   </si>
   <si>
     <t>p_thumb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천수 칼럼 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일 칼럼 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_children</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글수 칼럼 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2016,8 +2040,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2995,7 +3019,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10" t="s">
@@ -3150,10 +3174,18 @@
       <c r="L27" s="24"/>
     </row>
     <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="B28" s="22">
+        <v>2</v>
+      </c>
+      <c r="C28" s="31">
+        <v>44964</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>248</v>
+      </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
@@ -13207,7 +13239,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14437,10 +14469,18 @@
       <c r="L29" s="24"/>
     </row>
     <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+      <c r="B30" s="22">
+        <v>4</v>
+      </c>
+      <c r="C30" s="31">
+        <v>44964</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>249</v>
+      </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
@@ -14535,8 +14575,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15496,42 +15536,52 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>140</v>
+        <v>252</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="15" t="s">
-        <v>139</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>166</v>
+      </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="10" t="s">
-        <v>161</v>
-      </c>
+      <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="15"/>
+      <c r="L15" s="15" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9">
@@ -15542,7 +15592,9 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="H16" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -15690,10 +15742,18 @@
       <c r="L28" s="24"/>
     </row>
     <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="B29" s="22">
+        <v>3</v>
+      </c>
+      <c r="C29" s="31">
+        <v>44965</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>253</v>
+      </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
